--- a/HOMEWORK_ANSWERS.xlsx
+++ b/HOMEWORK_ANSWERS.xlsx
@@ -485,7 +485,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The song is: "Only Human" by Calum Scott</t>
+          <t>The song is: "Human" by Rag'n'Bone Man</t>
         </is>
       </c>
     </row>
